--- a/MovieData.xlsx
+++ b/MovieData.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31618\Desktop\spider2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B22DC-E6E0-45A0-90BA-E100AD7C16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Top250" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top250" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,17 +408,2072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="S207" sqref="S207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>intro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>希望让人自由。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142分钟</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>一场谋杀案使银行家安迪（蒂姆•罗宾斯 Tim Robbins 饰）蒙冤入狱，谋杀妻子及其情人的指控将囚禁他终生。在肖申克监狱的首次现身就让监狱“大哥”瑞德（摩根•弗里曼 Morgan Freeman 饰）对他另眼相看。瑞德帮助他搞到一把石锤和一幅女明星海报，两人渐成患难 之交。很快，安迪在监狱里大显其才，担当监狱图书管理员，并利用自己的金融知识帮助监狱官避税，引起了典狱长的注意，被招致麾下帮助典狱长洗黑钱。偶然一次，他得知一名新入狱的小偷能够作证帮他洗脱谋杀罪。燃起一丝希望的安迪找到了典狱长，希望他能帮自己翻案。阴险伪善的狱长假装答应安迪，背后却派人杀死小偷，让他唯一能合法出狱的希望泯灭。沮丧的安迪并没有绝望，在一个电闪雷鸣的风雨夜，一场暗藏几十年的越狱计划让他自我救赎，重获自由！老朋友瑞德在他的鼓舞和帮助下，也勇敢地奔向自由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>拯救一个人，就是拯救整个世界。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195分钟</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1939年，波兰在纳粹德国的统治下，党卫军对犹太人进行了隔离统治。德国商人奥斯卡·辛德勒（连姆·尼森 Liam Neeson 饰）来到德军统治下的克拉科夫，开设了一间搪瓷厂，生产军需用品。凭着出众的社交能力和大量的金钱，辛德勒和德军建立了良好的关系，他的工厂雇用犹太人工作，大发战争财。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125分钟</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>千寻和爸爸妈妈一同驱车前往新家，在郊外的小路上不慎进入了神秘的隧道——他们去到了另外一个诡异世界—一个中世纪的小镇。远处飘来食物的香味，爸爸妈妈大快朵颐，孰料之后变成了猪！这时小镇上渐渐来了许多样子古怪、半透明的人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>最美的谎言。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116分钟(国际版)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>犹太青年圭多（罗伯托·贝尼尼）邂逅美丽的女教师多拉（尼可莱塔·布拉斯基），他彬彬有礼的向多拉鞠躬：“早安！公主！”。历经诸多令人啼笑皆非的周折后，天遂人愿，两人幸福美满的生活在一起。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>怪蜀黍和小萝莉不得不说的故事。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110分钟(剧场版)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>里昂（让·雷诺饰）是名孤独的职业杀手，受人雇佣。一天，邻居家小姑娘马蒂尔达（纳塔丽·波特曼饰)敲开他的房门，要求在他那里暂避杀身之祸。原来邻居家的主人是警方缉毒组的眼线，只因贪污了一小包毒品而遭恶警（加里·奥德曼饰）杀害全家的惩罚。马蒂尔达得到里昂的留救，幸免于难，并留在里昂那里。里昂教小女孩使枪，她教里昂法文，两人关系日趋亲密，相处融洽。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">失去的才是永恒的。 </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>194分钟</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1912年4月10日，号称 “世界工业史上的奇迹”的豪华客轮泰坦尼克号开始了自己的处女航，从英国的南安普顿出发驶往美国纽约。富家少女罗丝（凯特•温丝莱特）与母亲及未婚夫卡尔坐上了头等舱；另一边，放荡不羁的少年画家杰克（莱昂纳多·迪卡普里奥）也在码头的一场赌博中赢得了下等舱的船票。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>一部美国近现代史。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>142分钟</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>阿甘（汤姆·汉克斯 饰）于二战结束后不久出生在美国南方阿拉巴马州一个闭塞的小镇，他先天弱智，智商只有75，然而他的妈妈是一个性格坚强的女性，她常常鼓励阿甘“傻人有傻福”，要他自强不息。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>风华绝代。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>171分钟</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>段小楼（张丰毅）与程蝶衣（张国荣）是一对打小一起长大的师兄弟，两人一个演生，一个饰旦，一向配合天衣无缝，尤其一出《霸王别姬》，更是誉满京城，为此，两人约定合演一辈子《霸王别姬》。但两人对戏剧与人生关系的理解有本质不同，段小楼深知戏非人生，程蝶衣则是人戏不分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>香港电影史上永不过时的杰作。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>101分钟</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1991年，香港黑帮三合会会员刘健明（刘德华）听从老大韩琛（曾志伟）的吩咐，加入警察部队成为黑帮卧底，韩琛许诺刘健明会帮其在七年后晋升为见习督察。1992年，警察训练学校优秀学员陈永仁（梁朝伟）被上级要求深入到三合会做卧底，终极目标是成为韩琛身边的红人。2002年，两人都不负重望，也都身背重压，刘健明渐想成为一个真正的好人，陈永仁则盼着尽快回归警察身份。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97分钟</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1949年的法国乡村，音乐家克莱门特（热拉尔·朱尼奥 饰）到了一间外号叫“塘低”的男子寄宿学校当助理教师。学校里的学生大部分都是难缠的问题儿童，体罚在这里司空见惯，学校的校长（弗朗索瓦·贝莱昂 饰）只顾自己的前途，残暴高压。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>小瓦力，大人生。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>98分钟</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>公元2805年，人类文明高度发展，却因污染和生活垃圾大量增加使得地球不再适于人类居住。地球人被迫乘坐飞船离开故乡，进行一次漫长无边的宇宙之旅。临行前他们委托Buynlarge的公司对地球垃圾进行清理，该公司开发了名为WALL·E（Waste Allocation Load Lifters – Earth 地球废品分装员）的机器人担当此重任。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>165分钟</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>本片讲述了一个钢琴天才传奇的一生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>103分钟</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>楚门（金•凯瑞 Jim Carrey 饰）是一个平凡得不能再平凡的人，除了一些有些稀奇的经历之外——初恋女友突然失踪、溺水身亡的父亲忽然似乎又出现在眼前，他和绝大多数30多岁的美国男人绝无异样。这令他倍感失落。他也曾试过离开自己生活了多年的地方，但总因种种理由而不能成行。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>真正的幸福是来自内心深处。</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>90分钟</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>布莱斯（卡兰•麦克奥利菲 Callan McAuliffe 饰）全家搬到小镇，邻家女孩朱丽（玛德琳•卡罗尔 Madeline Carroll 饰）前来帮忙。她对他一见钟情，心愿是获得他的吻。两人是同班同学，她一直想方设法接近他，但是他避之不及。她喜欢爬在高高的梧桐树上看风景。但因为施工，树被要被砍掉，她誓死捍卫，希望他并肩作战，但是他退缩了。她的事迹上了报纸，外公对她颇有好感，令他十分困惑。她凭借鸡下蛋的项目获得了科技展第一名，成了全场焦点，令他黯然失色。她把自家鸡蛋送给他，他听家人怀疑她家鸡蛋不卫生，便偷偷把鸡蛋丢掉。她得知真相，很伤心，两人关系跌入冰点。她跟家人诉说，引发争吵。原来父亲一直攒钱照顾傻弟弟，所以生活拮据。她理解了父母，自己动手，还得到了他外公的鼎力相助。他向她道歉，但是并未解决问题。他开始关注她。鸡蛋风波未平，家庭晚宴与午餐男孩评选...</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>155分钟</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>意大利南部小镇，古灵精怪的小男孩托托（萨瓦特利·卡西欧 饰）喜欢看电影，更喜欢看放映师阿尔弗雷多（菲利浦·诺瓦雷 饰）放电影，他和阿尔弗雷多成为了忘年之交，在胶片中找到了童年生活的乐趣。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>绝对意义上的美轮美奂。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>162分钟</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>战斗中负伤而下身瘫痪的前海军战士杰克·萨利（萨姆·沃辛顿 Sam Worthington 饰）决定替死去的同胞哥哥来到潘多拉星操纵格蕾丝博士（西格妮·韦弗 Sigourney Weaver 饰）用人类基因与当地纳美部族基因结合创造出的 “阿凡达” 混血生物。杰克的目的是打入纳美部落，外交说服他们自愿离开世代居住的家园，从而SecFor公司可砍伐殆尽该地区的原始森林，开采地下昂贵的“不可得”矿。在探索潘多拉星的过程中，杰克遇到了纳美部落的公主娜蒂瑞（佐伊·索尔达娜 Zoe Saldana 饰），向她学习了纳美人的生存技能与对待自然的态度。与此同时，SecFor公司的经理和军方代表上校迈尔斯（史蒂芬·朗 Stephen Lang 饰）逐渐丧失耐心，决定诉诸武力驱赶纳美人……</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>奔跑的孩子是天使。</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>89分钟</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>家境贫寒的男孩Ali（Amir Farrokh Hashemian）帮妹妹Zahra（Bahare Seddiqi）取修补好的鞋子时，不慎将鞋子弄丢，为了不被父（Mohammad Amir Naji）、母（Fereshte Sarabandi ）责罚，他央求Zahra暂时保密，说两人可以替换着穿他的鞋子上学，并答应一定会帮她买双新鞋子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>自由万岁。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>133分钟</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>麦克墨菲（杰克·尼科尔森 Jack Nicholson 饰）为了逃避监狱里的强制劳动，装作精神异常，被送进了精神病院，他的到来，给死气沉沉的精神病院带来了剧烈的冲击。 麦克要求看棒球比赛的电视转播，挑战了医院严格的管理制度，受到护士长拉契特（路易丝·弗莱彻 Louise Fletcher 饰）的百般阻挠；麦克带领病人出海捕鱼，振奋了他们的精神，却让院方头痛不已。院方为了惩处麦克胆大妄为、屡犯院规，决定将他永远留在疯人院。生性自由的麦克再也无法忍受疯人院的生活，他联合病友，高大的印第安人“酋长”，开始自己的计划：飞越疯人院。 本片获1975年第48届奥斯卡最佳影片，最佳男、女主角，最佳导演和最佳改编剧本五项大奖。主人公“不自由，毋宁死”的精神在当今社会仍有很大的现实意义。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>美利坚精神输出大片No1.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>169分钟</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>瑞恩（马特•达蒙 Matt Damon饰 ）是二战期间的美国伞兵，被困在了敌人后方。更不幸的是，他的三个兄弟全部在战争中死亡，如果他也遇难，家中的老母亲将无依无靠。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>用音乐化解仇恨，让歌声串起美好。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>174分钟</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>玛利亚（朱丽·安德鲁斯  饰）是一个年轻活泼的修女，喜欢在大自然下高声歌唱，所以她常常忘记了修道院里的规矩。院长认为玛利亚并不属于规矩严格的修道院。院长与众嬷嬷商量后，决定安排玛利亚到一位名叫特拉普（克里斯托弗·普卢默 饰）上校家当家庭教师。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>你以为你以为的就是你以为的。</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>106分钟</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>艾德里安（马里奥·卡萨斯 Mario Casas 饰）经营着一间科技公司，事业蒸蒸日上，家中有美丽贤惠的妻子和活泼可爱的女儿，事业家庭双丰收的他是旁人羡慕的对象。然而，野心勃勃的艾德里安并未珍惜眼前来之不易的生活，一直以来，他和一位名叫劳拉（芭芭拉·蓝妮 Bárbara Lennie 饰）的女摄影师保持着肉体关系。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>美丽无罪。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>109 分钟</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>当我还只是十三岁时，1941年春末的那一天，我初次见到了她那一天，墨索里尼向英法宣战，而我，得到了生命里的第一辆脚踏车。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>107分钟</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>艾迪（尼克·莫伦）思维敏捷，是个玩牌高手。在三个好友的支持下，艾迪携巨资参加了黑社会的高额赌局，不想落入圈套，欠下50万的赌债。为了还清赌债，艾迪和朋友们绞尽脑汁，最终算计到一群毒贩身上，并为打劫购买了两杆老式烟枪。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>94分钟</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>八岁男孩布鲁诺（Asa Butterfield 饰）一家随着纳粹军官父亲的一纸调令，由柏林搬迁到了乡下。失去了朋友们的布鲁诺很快对新家附近的“农庄”产生了兴趣，那里有一群身穿“条纹睡衣”的人终日忙碌，并且其中一个为布鲁诺一家服务，他形容肮脏，态度慎微。周遭环境和布鲁诺的举止让母亲暗暗担忧，但纳粹父亲制止家中任何怀疑既定政策的行为。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>别样人生。</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>137分钟</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1984年的东德，整个社会笼罩在国家安全局的高压统治之下，特工魏斯曼（乌尔里希·穆埃 Ulrich Mühe 饰）奉命监听剧作家德莱曼（塞巴斯蒂安·科赫 Sebastian Koch 饰）及其女友演员克里斯蒂娜（马蒂娜·格德克 Martina Gedeck 饰）的生活，监听过程中，魏斯曼渐渐对这家人的生活产生了兴趣，开始暗中帮助他们。一篇刊登在西德《明镜》报上的文章引起了特工头目的注意，他们认为这篇文章是德莱曼写的，并逮捕了克里斯蒂娜，希望能够从她口中得出她丈夫的秘密？而审问克里斯蒂娜的正是魏斯曼……</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>本杰明·巴顿奇事</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>在时间之河里感受溺水之苦。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>166分钟</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>飓风正在侵袭美国新奥尔良，一位病危的老妇睁开了她的睡眼。老妇名叫戴茜（凯特·布兰切特饰），她叫女儿凯若琳（朱莉娅•奥蒙德饰）为她阅读一本日记。这本日记的作者叫本杰明•巴顿（布拉德•皮特饰）。本杰明出生在第一次世界大战停战之时，但生来便像个老人的他被父亲当作怪物，被遗弃在了养老院。本杰明在养老院与老人们一起生活。但谁都没有想到，本杰明逆向发育——越活越年轻！也许“越活越年轻”是某些人的梦想，但真正这样成长的本杰明却有了别人无法理解的烦恼与快乐。穿越半世纪的世界变革，本杰明身处其中，感受别人感受不到的感受。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英俊版憨豆，高情商版谢耳朵。</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>171分钟(印度)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>本片根据印度畅销书作家奇坦·巴哈特（Chetan Bhagat）的处女作小说《五点人》（Five Point Someone）改编而成。法兰（马德哈万 R Madhavan 饰）、拉杜（沙曼·乔希 Sharman Joshi 饰）与兰乔（阿米尔·汗 Aamir Khan 饰）是皇家工程学院的学生，三人共居一室，结为好友。在以严格著称的学院里，兰乔是个非常与众不同的学生，他不死记硬背，甚至还公然顶撞校长“病毒”（波曼·伊拉尼 Boman Irani 饰），质疑他的教学方法。他不仅鼓动法兰与拉杜去勇敢追寻理想，还劝说校长的二女儿碧雅（卡琳娜·卡普 Kareena Kapoor 饰）离开满眼铜臭的未婚夫。兰乔的特立独行引起了模范学生“消音器”（奥米·维嘉 Omi Vaidya 饰）的不满，他约定十年后再与兰乔一决高下，看哪种生活方式更能取得成功。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>爱是一切逻辑和原由。</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>135分钟</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>本片是关于20世纪伟大数学家小约翰•福布斯-纳什的人物传记片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>124分钟</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>台湾中国菜硕果仅存的大师老朱（郎雄）退休后，渐尝老年生活的诸多尴尬：每周日费心做出的一桌丰盛菜肴，并无将三个女儿（杨贵媚、吴倩莲、王渝文）齐齐拉到饭桌的吸引力，已经长大成人的她们，心里藏了许多比陪父亲吃饭更重要的事；多年老友的突然离世，令他在友情这块也有了缺口；而对厨师来讲最重要的味觉的丧失，则将其彻底推到人生的低谷。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>139 分钟</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>杰克（爱德华•诺顿 饰）是一个大汽车公司的职员，患有严重的失眠症，对周围的一切充满危机和憎恨。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>动物版《哈姆雷特》。</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>89 分钟</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>辛巴是狮子王国的小王子，他的父亲穆法沙是一个威严的国王。然而叔叔刀疤却对穆法沙的王位觊觎已久。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>电影的现实意义大过电影本身。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>127分钟</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1978年，只有高中学历的宋佑硕（宋康昊 饰）通过多年的艰苦努力，终于通过司法考试，并在成为法官后很快转行成为一名律师。他敏锐地从最新政策中嗅到商机，以不动产代书业务起家。虽然被同行讥讽为随时随地派发名片的夜店小弟，但佑硕不以为忤，一步一步朝着心中的目标迈进。他依靠赚来的钱让妻儿过上富足的生活，也还了七年前在饭店大婶那里欠下的良心债。进入20世纪80年代，韩国民主化斗争愈演愈烈。佑硕全然不管窗外事，关起门来继续赚钱。然而社会的巨变已经不容他置身事外，饭店大婶的儿子朴镇宇因从属的釜山读书联合会被控为左翼社团而遭到逮捕，更受到残酷的虐待和不公的指控。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>去除成见，需要勇气。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>130分钟</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>托尼（维果·莫腾森 Viggo Mortensen 饰）是一个吊儿郎当游手好闲的混混，在一家夜总会做侍者。这间夜总会因故要停业几个月，可托尼所要支付的房租和生活费不会因此取消，所以他的当务之急是去寻找另一份工作来填补这几个月的空缺。在这个节骨眼上，一位名叫唐雪莉（马赫沙拉·阿里 Mahershala Ali 饰）的黑人钢琴家提出雇佣托尼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>教父2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>优雅的孤独。</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>202分钟</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>迈克尔（阿尔·帕西诺 饰）是美利坚黑手党科利昂家族的头目。 迈克尔的父亲维托·安多里尼（罗伯特·德尼罗 饰）出生于意大利科利昂镇。1901年，维托的父亲安东尼奥、兄长保罗、母亲（玛丽亚·卡塔 饰）都死于黑手党西乔家族之手。9岁的维托只得漂洋过海逃亡美利坚谋生。入境时，海关官员（理查德·沃森 饰）将其名姓登记为维托·科利昂。 1958年，迈克尔为儿子安东尼（詹姆斯·古纳瑞斯 饰）举办了初领圣体的聚会，不想当晚便遭遇暗杀。迈克尔侥幸躲过一劫，两名杀手却被人灭口。 维托在异国他乡如何生存？他身负的血海深仇能否得报？想要迈克尔性命的是谁？将杀手灭口的又是谁？</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>128 分钟</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>威尔顿预备学院以其沉稳凝重的教学风格和较高的升学率闻名，作为其毕业班的学生，理想就是升入名校。新学期文学老师约翰·基汀（罗宾·威廉姆斯 饰）的到来如同一阵春风，一反传统名校的严肃刻板。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>经典之作，历久弥新。</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>113分钟</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>话说在东土傲来国有一座花果山，山上有一尊石猴吸收日精月华化身为一只神猴（邱岳峰 音），统领着山中的猴子猴孙。为求得一件称心的宝贝，神猴孙大圣潜入龙宫，强硬求来大禹治水时的定海神针如意金箍棒。东海龙王（毕克 音）心有不甘，于是上天将此事诉诸玉帝（富润生 音）。玉皇大帝命令太白金星（尚华 音）下界招安，许以爵位。不知有诈的孙大圣欣然前往，却发现只是负责养马的弼马温。得知受骗的猴王反下天庭，与天兵天将在花果山展开大战……</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>指环王1：护戒使者</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>传说的开始。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>179分钟</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>比尔博·巴金斯是100多岁的霍比特人，住在故乡夏尔，生性喜欢冒险，在年轻时的一次探险经历中，他从怪物咕噜手中得到了至尊魔戒，这枚戒指是黑暗魔君索伦打造的至尊魔戒，拥有奴役世界的邪恶力量，能够统领其他几枚力量之戒，在3000年前的人类联盟和半兽人大军的战役中，联盟取得了胜利 ，并得到了至尊魔戒，数千年的辗转后，魔戒落到咕噜手中，被比尔博碰巧得到。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>视觉革命。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>136分钟</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>不久的将来，网络黑客尼奥（基奴李维斯 饰）对这个看似正常的现实世界产生了怀疑。他结识了黑客崔妮蒂（凯莉·安·摩丝 饰），并见到了黑客组织的首领墨菲斯（劳伦斯·菲什伯恩 饰）。墨菲斯告诉他，现实世界其实是由一个名叫“母体”的计算机人工智能系统控制，人们就像他们饲养的动物，没有自由和思想，而尼奥就是能够拯救人类的救世主。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>暗恋的极致。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>117分钟</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>日本神户某个飘雪的冬日，渡边博子（中山美穗）在前未婚夫藤井树的两周年祭日上又一次悲痛到不能自已。正因为无法抑制住对已逝恋人的思念，渡边博子在其中学同学录里发现“藤井树” 在小樽市读书时的地址时，依循着寄发了一封本以为是发往天国的情书。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>爱情哪怕只有一天。</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>118分钟</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>欧洲某国的安妮公主（奥黛丽·赫本 Audrey Hepburn 饰）到访罗马，国务烦身，但她又厌倦繁文缛节。一天晚上，身心俱疲的她偷偷来到民间欣赏夜景，巧遇报社记者乔（格里高利·派克 Gregory Peck 饰）。二人把手同游，相当快乐。公主更是到乔的家中作客并在那过夜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>111分钟</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>孤儿海蒂（阿努克·斯特芬 饰）被姨母迪蒂（安娜·希恩斯 饰）送上了阿尔卑斯山，与远离小镇独居于高山的祖父（布鲁诺·甘茨 饰）一同生活。活泼的海蒂在这里如鱼得水，不仅收获了羊倌彼得（奎林·阿格里皮 饰）的友情和孤僻祖父的亲情，还与山下彼得的家人打成一片。一天，海蒂同彼得在山上放羊，姨母突然出现，连哄带骗将海蒂卖到法兰克福的泽塞曼家。从此，目不识A的海蒂成为了小姐克拉拉（伊莎贝尔·奥特曼 饰）的伴读。克拉拉幼年丧母，大病一场再不能站立，只能被困在豪宅中与轮椅相伴。父亲（马克西姆·梅米特 饰）常年在外很少回家，寂寞的克拉拉把海蒂当成了救命稻草。海蒂能适应泽塞曼家的新生活吗？远在天边的祖父和彼得还能再见吗？克拉拉的腿还有好起来的希望吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>史上最美的探戈。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>157 分钟</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>查理（克里斯•奥唐纳 Chris O'Donnell  饰）是一个普通的中学生，他因为见证着一件恶作剧但又不想出卖朋友，于是面临着一道艰难的选择题——要么坦白，要么被学校勒退。而史法兰（阿尔•帕西诺 Al Pacino  饰）是一个退伍军官，因为意外失明，人生从顶点的辉煌滑落谷底。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>指环王2：双塔奇兵</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>承前启后的史诗篇章。</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>180分钟</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>第二部在延续第一部风格的同时，故事呈现出多线发展的格局，情节有了更高的观赏性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>音乐能化解仇恨。</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>150分钟</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>史标曼（艾德里安•布洛迪 Adrien Brody 饰）是波兰一家电台的钢琴师。二战即将爆发之时，他们全家被迫被赶进华沙的犹太区。在战争的颠沛流离中，家人和亲戚最终被纳粹杀害，而史标曼本人也受尽种种羞辱和折磨，他侥幸得到一位朋友的帮助，暂时有了藏身之处。战争愈加猛烈，朋友不得不抛下他回老家寻得安全的住所养育儿女。此时史标曼恶病缠身，却还要在搜捕中逃亡。在废墟的阁楼上他遇见了一名德国军官，在军官的要求下他弹奏了钢琴曲。美妙的琴声令德国军官萌发了恻隐之心，他暗暗帮助史标曼直到苏军对波兰的解放到来…… 影片根据波兰钢琴家瓦拉迪斯罗•斯皮曼(Wladyslaw Szpilman)的自传体小说《死亡城市》改编。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>132分钟</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>民国年间，花钱捐得县长的马邦德（葛优 饰）携妻（刘嘉玲 饰）及随从走马上任。途经南国某地，遭劫匪张麻子（姜文 饰）一伙伏击，随从尽死，只夫妻二人侥幸活命。马为保命，谎称自己是县长的汤 师爷。为汤师爷许下的财富所动，张麻子摇身一变化身县长，带着手下赶赴鹅城上任。有道是天高皇帝远，鹅城地处偏僻，一方霸主黄四郎（周润发 饰）只手遮天，全然不将这个新来的县长放在眼里。张麻子痛打了黄的武教头（姜武 饰），黄则设计害死张的义子小六（张默 饰）。原本只想赚钱的马邦德，怎么也想不到竟会被卷入这场土匪和恶霸的角力之中。鹅城上空愁云密布，血雨腥风在所难免……</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">对天空的追逐，永不停止。 </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>125分钟</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>古老帝国拉比达是一座漂浮在空中的巨大的机器岛，传说那里已经无人居住，蕴藏着巨大的财富。因此，无论军方还是海盗，都在找寻着这座传说中的飞行岛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>旷古烁今。</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>87分钟</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>孙悟空（周星驰）护送唐三藏（罗家英）去西天取经路上，与牛魔王合谋欲杀害唐三藏，并偷走了月光宝盒，此举使观音萌生将其铲除心思，经唐三藏请求，孙悟空被判五百年后重新投胎做人赎其罪孽。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>141 分钟</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>弗兰克（莱昂纳多·迪卡普里奥 Leonardo DiCaprio饰）是FBI有史以来年龄最小的通缉犯。他的犯罪手段神通广大，伪装身份的能力超乎常人，全美各地几乎都留下他的犯罪足迹。乔装医生、律师、飞行员，统统都是他曾经的身份。当然，弗兰克凭着这个“本领”，骗取了高达几百万的金额。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>对敌人的仁慈，就是对自己残忍。</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>139分钟</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>第二次世界大战期间，中国河北挂甲台村的农民马大三（姜文饰）在日本人的统治下过着平静的生活。一个晚上，游击队绑架了日军陆军士兵花屋小三郎（香川照之饰）和翻译董汉臣，把他们捆绑塞入麻袋放在马大三家里，并吩咐马好好看管，几天后的大年三十来带人。马大三和村民战战兢兢地看守两人，花屋小三郎和董汉臣数次发出求救信号，皆被村民化解。半年过去了，村民们担心事情暴露，却又不敢把花屋等放了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>瑰丽壮观、无人能及的冒险之旅。</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>127分钟</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>故事开始于蒙特娄，也结束于蒙特娄。一名在找寻灵感的作家（拉菲·斯波 Rafe Spall 饰）无意间得知派·帕帖尔（伊尔凡·可汗 Irrfan Khan 饰）的传奇故事。派的父亲（阿迪勒·侯赛因 Adil Hussain 饰）开了一家动物园。因这样特殊的生活环境，少年派（苏拉·沙玛 Suraj Sharma 饰 ）对信仰与人的本性自有一套看法。在派17岁那一年，他的父母决定举家移民加拿大以追求更好的生活，而他也必须离开他的初恋情人。在前往加拿大的船上，他们遇见一位残忍成性的法国厨师（杰拉尔·德帕迪约 Gérard Depardieu 饰）。当天深夜在茫茫大海中，原本令派感到刺激无比的暴风雨一瞬间就成了吞噬货船的大灾难。派却奇迹般地活了下来，搭着救生船在太平洋上漂流，而且有一名最令人意想不到的同伴——理查德·帕克，一只孟加拉老虎。神奇的冒险旅程就这样意...</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>带着心爱的人在天空飞翔。</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>119分钟</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>继母因无力负担生活，将苏菲和她的两个妹妹都送到了制帽店去当学徒。两个妹妹很快先后就离开了制帽店去追寻各自的梦想，只有苏菲坚持了下来。一天，小镇旁边来了一座移动堡垒，传说堡垒的主人哈尔专吸取年青姑娘的灵魂，所以小镇的姑娘都不敢靠近。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1957年的理想主义。 </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>96 分钟</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>一个在贫民窟长大的18岁少年因为涉嫌杀害自己的父亲被告上法庭，证人言之凿凿，各方面的证据都对他极为不利。十二个不同职业的人组成了这个案件的陪审团，他们要在休息室达成一致的意见，裁定少年是否有罪，如果罪名成立，少年将会被判处死刑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>凝视卑弱生命，用电影改变命运。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>126分钟</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>法庭上，十二岁的男孩赞恩向法官状告他的亲生父母，原因是，他们给了他生命。是什么样的经历让一个孩子做出如此不可思议的举动？故事中，赞恩的父母在无力抚养和教育的状况下依然不停生育，作为家中的长子赞恩，弱小的肩膀承担了无数生活的重压。当妹妹被强行卖给商贩为妻时，赞恩愤怒离家，之后遇到一对没有合法身份的母子，相互扶持勉强生活。然而生活并没有眷顾赞恩，重重磨难迫使他做出了令人震惊的举动……</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>摔跤吧！爸爸</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>161分钟(印度)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>马哈维亚（阿米尔·汗 Aamir Khan 饰）曾经是一名前途无量的摔跤运动员，在放弃了职业生涯后，他最大的遗憾就是没有能够替国家赢得金牌。马哈维亚将这份希望寄托在了尚未出生的儿子身上，哪知道妻子接连给他生了两个女儿，取名吉塔（法缇玛·萨那·纱卡 Fatima Sana Shaikh 饰）和巴比塔（桑亚·玛荷塔 Sanya Malhotra 饰）。让马哈维亚没有想到的是，两个姑娘展现出了杰出的摔跤天赋，让他幡然醒悟，就算是女孩，也能够昂首挺胸的站在比赛场上，为了国家和她们自己赢得荣誉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>对我们国家而言，这样的电影多一部是一部。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>117分钟</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>普通中年男子程勇（徐峥 饰）经营着一家保健品店，失意又失婚。不速之客吕受益（王传君 饰）的到来，让他开辟了一条去印度买药做“代购”的新事业，虽然困难重重，但他在这条“买药之路”上发现了商机，一发不可收拾地做起了治疗慢粒白血病的印度仿制药独家代理商。赚钱的同时，他也认识了几个病患及家属，为救女儿被迫做舞女的思慧（谭卓 饰）、说一口流利“神父腔”英语的刘牧师（杨新鸣 饰），以及脾气暴烈的“黄毛”（章宇 饰），几个人合伙做起了生意，利润倍增的同时也危机四伏。程勇昔日的小舅子曹警官（周一围 饰）奉命调查仿制药的源头，假药贩子张长林（王砚辉 饰）和瑞士正牌医药代表（李乃文 饰）也对其虎视眈眈，生意逐渐变成了一场关于救赎的拉锯战。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>96分钟</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>小男孩卡尔（Carl Fredricksen）怀揣着对于冒险的热爱偶遇假小子艾丽（Ellie），而艾丽把整个屋子当成一艘大飞船游戏居然使他对这个女孩子有些着迷，相同的爱好最终使两个人成为了一生的爱侣。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>122分钟</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>她（李来 饰）是一个美丽平凡的小女孩，和爸爸妈妈生活在位于街角的家中。家里经营着以她的名字素媛命名的杂货店，母亲（严智媛 饰）作为老板娘日夜忙碌不得闲暇，父亲则在工厂干着繁重的工作。在那个飘雨的早上，素媛打着雨伞独自上学。在离学校近在咫尺的地方，她遭遇一个相貌猥琐、酒气冲天的大叔，由此开启了她的悲剧之旅。柔嫩的小花遭到暴风雨无情摧残，受伤的岂止枝枝叶叶，更是那迎着阳光无忧成长的心。无良媒体铺天盖地大肆渲染，作为受害者的素媛一家仿佛成了周身污秽的耻辱之人，被四周诧异好奇的目光所包围。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tomorrow is another day.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>238分钟</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>美国南北战争前夕，南方农场塔拉庄园的千金斯嘉丽（费雯·丽 Vivien Leigh 饰）爱上了另一个农场主的儿子艾希礼（莱斯利·霍华德 Leslie Howard 饰），遭到了拒绝，为了报复，她嫁给了自己不爱的男人，艾希礼妻子梅兰妮（奥利维娅·德哈维兰 Olivia de Havilland 饰）的弟弟查尔斯。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>史诗的终章。</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>201分钟</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>魔幻战争逐渐进入高潮阶段。霍比特人佛罗多（伊利亚·伍德 Elijah Wood 饰）携带着魔戒，与伙伴山姆（西恩·奥斯汀 Sean Astin 饰）以及狡猾阴暗的咕噜等前往末日山，一路上艰难险阻不断，魔君索伦为阻止魔戒被销毁用尽全力阻挠。另一方面，白袍巫师甘道夫（伊恩·麦克莱恩 Ian McKellen 饰）率中土勇士们镇守刚铎首都——白城米那斯提里斯。魔兽大军压境，黑暗与光明的决战即将来临……</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>童话世界的开端。</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>152分钟</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>哈利波特是一个孤儿，从小寄养在姨妈家，受尽欺凌。但就在哈利11岁生日的时候，他意外收到了霍格沃茨学院的入学通知书。哈利从该学院派来接他的巨人海格口中得知，这是一间魔法学院，并得知了自己的身世，原来哈利的父母都是伟大的魔法师，在对付伏地魔的战斗中双双献身，唯有哈利幸免于难。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>张艺谋最好的电影。</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>132分钟</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>根据余华同名小说改编。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>无尽的黑暗。</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>152分钟</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>从亲眼目睹父母被人杀死的阴影中走出来的“蝙蝠侠”，经历了成长之后，已经不再是那个桀骜不的孤单英雄了。在警官吉姆·戈登和检查官哈维·登特的通力帮助下，“蝙蝠侠”无后顾之忧地继续满世界的奔波，与日益增长起来的犯罪威胁做着永无休止的争斗，而他所在的高谭市，也是进展最为明显的地方，犯罪率以一种惊人的速度持续下降着，毕竟对方是能够上天入地的“蝙蝠侠”，不借两个胆子谁还敢造次呢？不过像高谭这种科技与污秽并存的城市，平静是不可能维持太久的，果不其然，新一轮的混乱很快就席卷了整个城市，人们再一被被恐慌所笼罩着，而声称愿意为这一切负责的，自然就是所有混乱的源头以及支配者--“小丑”了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>105分钟</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>热爱音乐的米格尔（安东尼·冈萨雷兹 Anthony Gonzalez 配音）不幸地出生在一个视音乐为洪水猛兽的大家庭之中，一家人只盼着米格尔快快长大，好继承家里传承了数代的制鞋产业。一年一度的亡灵节即将来临，每逢这一天，去世的亲人们的魂魄便可凭借着摆在祭坛上的照片返回现世和生者团圆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>163分钟</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>溥仪（尊龙 饰）的一生在电影中娓娓道来。他从三岁起登基，年幼的眼光中只有大臣身上的一只蝈蝈，江山在他心中只是一个不明所以的名词。长大了，他以为可以变革，却被太监一把火烧了朝廷账本。他以为自己是大清江山的主人，却做了日本人的傀儡。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>86分钟</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>小月的母亲生病住院了，父亲带着她与四岁的妹妹小梅到乡间的居住。她们对那里的环境都感到十分新奇，也发现了很多有趣的事情。她们遇到了很多小精灵，她们来到属于她们的环境中，看到了她们世界中很多的奇怪事物，更与一只大大胖胖的龙猫成为了朋友。龙猫与小精灵们利用他们的神奇力量，为小月与妹妹带来了很多神奇的景观，令她们大开眼界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>满满温情的高雅喜剧。</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>112分钟</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>因为一次跳伞事故，白人富翁菲利普Philippe（弗朗索瓦·克鲁塞 François Cluzet 饰）瘫痪在床，欲招聘一名全职陪护。由于薪酬高，应聘者云集，个个舌灿莲花，却无法打动他的心。直到黑人德希斯Driss（奥玛·赛 Omar Sy 饰）的出现才让他作出决定。德希斯刚从监狱出来，背负家庭重担，一心只想寻张辞退信以申领救济金，而且他明显对女助理的兴趣要远大于这份工作。但是菲利普还是一眼相中了这个小伙子。于是，德希斯开始了一个月的试用期。虽然舒适的豪宅环境让他倍感虚荣，但是他仍面临很多挑战：不仅要为菲利普作身体复健，还得给他洗浴、灌肠、拆信、穿丝袜等。起初，两人的思维方式与价值观大相径庭，但是，随着了解的不断深入，他们成为了朋友……</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平民励志片。 </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>117分钟</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>克里斯•加纳（威尔·史密斯 Will Smith 饰）用尽全部积蓄买下了高科技治疗仪，到处向医院推销，可是价格高昂，接受的人不多。就算他多努力都无法提供一个良好的生活环境给妻儿，妻子（桑迪·牛顿 Thandie Newton 饰）最终选择离开家。从此他带着儿子克里斯托夫（贾登·史密斯 Jaden Smith 饰）相依为命。克里斯好不容易争取回来一个股票投资公司实习的机会，就算没有报酬，成功机会只有百分之五，他仍努力奋斗，儿子是他的力量。他看尽白眼，与儿子躲在地铁站里的公共厕所里，住在教堂的收容所里…… 他坚信，幸福明天就会来临。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>175 分钟</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>40年代的美国，“教父”维托·柯里昂（马龙·白兰度 饰）是黑手党柯里昂家族的首领，带领家族从事非法的勾当，但同时他也是许多弱小平民的保护神，深得人们爱戴。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>比利·怀德满分作品。</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>116分钟</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>伦敦著名刑案辩护律师韦菲爵士（查尔斯•劳顿 Charles Laughton 饰）接受了心脏病治疗，但是身体依旧虚弱，第一天回家休养，护士一直严厉监督他服药，并杜绝烟酒。管家为了便于上楼，还专门为他修了电梯。但是，种种关心照顾，对于这位桀骜不驯、牙尖嘴利的大律师根本不起作用，反倒是一纸诉状令他倍感兴奋。律师梅休和当事人沃尔（泰隆•鲍华 Tyrone Power饰）登门拜访，请他出山打官司。原来，沃尔结识了富婆，两人相见甚欢，虽然仆人对他发明的打蛋器充满鄙夷，但是富婆却对他充满爱意，甚至为他修改了遗嘱，把8万英镑留给了他。然而，富婆却惨遭毒手。于是，沃尔成为警方的头号嫌疑犯。他的唯一证人是妻子克里斯汀（玛琳•黛德丽 Marlene Dietrich饰），然而后者登门时的冷漠与淡定，令韦菲爵士怀疑这其中另有隐情。在扑朔迷离的案件背后，隐藏着一个个环环相扣...</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>125分钟</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>来自首尔的哑语美术老师仁浩（孔宥 饰）来到雾津，应聘慈爱聋哑人学校。天降大雾，他意外撞车，维修时邂逅了人权组织成员柔珍（郑有美 饰）。仁浩妻子早亡，8岁女儿天生哮喘由祖母照看，所以他不辞辛苦谋职养家。然而，双胞胎的校长与教导主任竟逼仁浩索贿5千万韩元。同时，仁浩逐渐发现学校笼罩着一种紧张压抑的气氛，令人窒息。有三个孩子引人关注：聪颖的金妍斗（金贤秀 饰）、贪吃的陈宥利（郑仁絮 饰）和弟弟自杀身亡的全民秀（白承焕 饰），民秀总是满脸淤青。下课后，仁浩还听到女厕所中有呼喊与哭泣，在门卫的阻拦下他未深究。之后。他意外目睹了校长行贿警察，教导员毒打民秀，宿导溺罚妍斗的行径。一个惊天的隐秘被慢慢揭开，真相令韩国震惊……</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>一生所爱。</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>95分钟</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>至尊宝（周星驰 饰）被月光宝盒带回到五百年前，遇见紫霞仙子（朱茵 饰），被对方打上烙印成为对方的人，并发觉自己已变成孙悟空。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>109分钟(中国大陆)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>故事发生在一个所有哺乳类动物和谐共存的美好世界中，兔子朱迪（金妮弗·古德温 Ginnifer Goodwin 配音）从小就梦想着能够成为一名惩恶扬善的刑警，凭借着智慧和努力，朱迪成功的从警校中毕业进入了疯狂动物城警察局，殊不知这里是大型肉食类动物的领地，作为第一只，也是唯一的小型食草类动物，朱迪会遇到怎样的故事呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>永远都不能忘记你所爱的人。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>93分钟</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>八公（Forest 饰）是一条谜一样的犬，因为没有人知道它从哪里来。教授帕克（理查·基尔 Richard Gere 饰）在小镇的火车站拣到一只走失的小狗，冥冥中似乎注定小狗和帕克教授有着某种缘分，帕克一抱起这只小狗就再也放不下来，最终，帕克对小狗八公的疼爱感化了起初极力反对养狗的妻子卡特（琼·艾伦 Joan Allen 饰）。八公在帕克的呵护下慢慢长大，帕克上班时八公会一直把他送到车站，下班时八公也会早早便爬在车站等候，八公的忠诚让小镇的人家对它更加疼爱。有一天，八公在帕克要上班时表现异常，居然玩起了以往从来不会的捡球游戏，八公的表现让帕克非常满意，可是就是在那天，帕克因病去世。帕克的妻子、女儿安迪（萨拉·罗默尔 Sarah Roemer 饰）及女婿迈克尔（罗比·萨布莱特 Robbie Sublett 饰）怀着无比沉痛的心情埋葬了帕克，可是不明就里的...</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>爱是一种力量，让我们超越时空感知它的存在。</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>169分钟</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>近未来的地球黄沙遍野，小麦、秋葵等基础农作物相继因枯萎病灭绝，人类不再像从前那样仰望星空，放纵想象力和灵感的迸发，而是每日在沙尘暴的肆虐下倒数着所剩不多的光景。在家务农的前NASA宇航员库珀（马修·麦康纳 Matthew McConaughey 饰）接连在女儿墨菲（麦肯吉·弗依 Mackenzie Foy 饰）的书房发现奇怪的重力场现象，随即得知在某个未知区域内前NASA成员仍秘密进行一个拯救人类的计划。多年以前土星附近出现神秘虫洞，NASA借机将数名宇航员派遣到遥远的星系寻找适合居住的星球。在布兰德教授（迈克尔·凯恩 Michael Caine 饰）的劝说下，库珀忍痛告别了女儿，和其他三名专家教授女儿艾米莉亚·布兰德（安妮·海瑟薇 Anne Hathaway 饰）、罗米利（大卫·吉雅西 David Gyasi 饰）、多伊尔（韦斯·本特利 Wes B...</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺兰给了我们一场无法盗取的梦。</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>148分钟</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>道姆·柯布（莱昂纳多·迪卡普里奥 Leonardo DiCaprio 饰）与同事阿瑟（约瑟夫·戈登-莱维特 Joseph Gordon-Levitt 饰）和纳什（卢卡斯·哈斯 Lukas Haas 饰）在一次针对日本能源大亨齐藤（渡边谦 饰）的盗梦行动中失败，反被齐藤利用。齐藤威逼利诱因遭通缉而流亡海外的柯布帮他拆分他竞争对手的公司，采取极端措施在其唯一继承人罗伯特·费希尔（希里安·墨菲 Cillian Murphy 饰）的深层潜意识中种下放弃家族公司、自立门户的想法。为了重返美国，柯布偷偷求助于岳父迈尔斯（迈克尔·凯恩 Michael Caine 饰），吸收了年轻的梦境设计师艾里阿德妮（艾伦·佩吉 Ellen Page 饰）、梦境演员艾姆斯（汤姆·哈迪 Tom Hardy 饰）和药剂师约瑟夫（迪利普·劳 Dileep Rao 饰）加入行动。在一层层...</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>